--- a/data/cement/factories/clinker_factory-0C.xlsx
+++ b/data/cement/factories/clinker_factory-0C.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Inflow</t>
   </si>
@@ -118,22 +118,19 @@
     <t>cement_meal</t>
   </si>
   <si>
+    <t>ground meal</t>
+  </si>
+  <si>
+    <t>hot clinker</t>
+  </si>
+  <si>
+    <t>cement_kiln-system</t>
+  </si>
+  <si>
     <t>cement_cooler</t>
   </si>
   <si>
-    <t>cement_mixer</t>
-  </si>
-  <si>
-    <t>ground meal</t>
-  </si>
-  <si>
-    <t>hot clinker</t>
-  </si>
-  <si>
-    <t>cool clinker</t>
-  </si>
-  <si>
-    <t>cement_kiln-system</t>
+    <t>clinker</t>
   </si>
 </sst>
 </file>
@@ -516,7 +513,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -540,10 +537,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -576,7 +573,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B16" sqref="B16:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -618,7 +615,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -652,7 +649,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -681,41 +678,34 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C3" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/cement/factories/clinker_factory-0C.xlsx
+++ b/data/cement/factories/clinker_factory-0C.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\cement\factories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/cement/factories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892971BB-1635-1748-AD15-779435124A28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="465" windowWidth="18720" windowHeight="17535" activeTab="1"/>
+    <workbookView xWindow="8660" yWindow="460" windowWidth="22560" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="10" r:id="rId1"/>
     <sheet name="connections" sheetId="11" r:id="rId2"/>
-    <sheet name="cement" sheetId="12" r:id="rId3"/>
+    <sheet name="clinker" sheetId="12" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Inflow</t>
   </si>
@@ -110,9 +111,6 @@
   </si>
   <si>
     <t>simple_power</t>
-  </si>
-  <si>
-    <t>cement</t>
   </si>
   <si>
     <t>cement_meal</t>
@@ -136,7 +134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -198,7 +196,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -509,16 +507,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -535,21 +533,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -569,16 +567,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -613,9 +611,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -645,21 +643,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -670,40 +668,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" s="5"/>
     </row>
